--- a/biology/Zoologie/Acrossus_luridus/Acrossus_luridus.xlsx
+++ b/biology/Zoologie/Acrossus_luridus/Acrossus_luridus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acrossus luridus ou Aphodius luridus[1] est une espèce d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de genre Acrossus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acrossus luridus ou Aphodius luridus est une espèce d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de genre Acrossus.
 </t>
         </is>
       </c>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Répartition
-On le trouve dans les zones paléarctique (Europe, Est-Sibérie, Transcaspia, Afrique du Nord, Maroc), néarctique (introduit en Amérique du Nord), néotropique (introduit dans les Antilles)[2]. Il est présent en France par exemple dans le Nord-Pas-de-Calais. 
-Habitat</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans les zones paléarctique (Europe, Est-Sibérie, Transcaspia, Afrique du Nord, Maroc), néarctique (introduit en Amérique du Nord), néotropique (introduit dans les Antilles). Il est présent en France par exemple dans le Nord-Pas-de-Calais. 
+</t>
         </is>
       </c>
     </row>
@@ -544,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,7 +616,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Acrossus luridusa été décrite par l'entomologiste danois Johan Christian Fabricius en 1775.
 </t>
@@ -626,9 +649,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 août 2014)[3]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 août 2014)
 Acrossus luridus apicalis (Mulsant)
 Acrossus luridus bipaginatus (Mulsant)
 Acrossus luridus connexus (Mulsant)
@@ -667,9 +692,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 août 2014)[4] 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 août 2014) 
 Acrossus apicalis Mulsant, 1842
 Acrossus bipaginatus Mulsant, 1842
 Acrossus connexus Mulsant, 1842
